--- a/biology/Zoologie/William_Roy_Branch/William_Roy_Branch.xlsx
+++ b/biology/Zoologie/William_Roy_Branch/William_Roy_Branch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Roy Branch est un herpétologiste britannique né le 12 mai 1946 à Londres et mort le 14 octobre 2018. Il vivait en Afrique du Sud.
 Diplômé de l'université de Southampton. Il est Curator of Herpetology au musée de Port Elizabeth.  C'est un spécialiste de l'herpétofaune afrotropicale.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acanthocercus branchi Wagner, Greenbaum &amp; Bauer, 2012
 Breviceps branchi Channing, 2012</t>
@@ -543,7 +557,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Afrogecko Bauer, Good &amp; Branch, 1997
